--- a/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Rokita. Well, good morning. And welcome to the first hearing of the Subcommittee on Early Childhood, Elementary, and Secondary Education in the 114th Congress.    I would like to thank our witnesses for joining us today. We appreciate the opportunity to learn from you about how emerging technology in the classroom affects student privacy.    And Ms. Fudge, before we begin, I want to take a moment to congratulate you on being selected by your colleagues to be the ranking member of this subcommittee. I anticipate that we are gonna hear a lot from each other, work well together. And I look forward to doing that with you.</t>
   </si>
   <si>
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you.</t>
   </si>
   <si>
@@ -79,33 +73,21 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Reidenberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Reidenberg. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. I will now, in conformance with our rules, ask our witnesses to stand and raise your right hand.    [Witnesses sworn.]    Let the record reflect that the witnesses answered in the affirmative.    And before I recognize each of you to provide your testimony, let me briefly explain our lighting system. You will each have 5 minutes to present your testimony. During the first 4 minutes of that, the light will be green. The last minute it will be yellow. And then if it turns red, I will be forced to use the gavel, which we have never had to do. At all. Ever. So I am sure it won't happen today.    So with that being said and understood, Ms. Sevier, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Sevier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sevier. National PTA thanks Chairman Rokita and Ranking Member Fudge for the opportunity to submit testimony to the Committee on Education and the Workforce. On behalf of the National Parent Teacher Association, I express my appreciation for holding a hearing to discuss emerging technology and student data privacy.    My name is Shannon Sevier, vice president of advocacy for the National PTA, past European PTA president, and proud mother to Ryley, MacKenzie, Meraleigh, Ryan, and Hanna.    Founded in 1897, PTA is the oldest and largest volunteer child advocacy association in the United States. For more than 118 years, we have worked side by side with policymakers at every level to improve the lives of our nation's children. With more than 4 million members and 22,000 local units in every U.S. state, D.C., Puerto Rico, the Virgin Islands, and Europe, PTA continues to be a powerful voice by advocating for federal policies to improve educational equity and opportunity for all children.    With access to so many families, PTA also recognizes our responsibility to our membership to approach changes in education policy through engagement and outreach and to recognize that true advocacy is achieved through stakeholder consensus and collaboration. National PTA has long been a vocal advocate of keeping kids safe; safe at school, safe at home, and same online.    The National PTA's position statement on technology safety clearly states National PTA opposes the practice of collecting, compiling, selling, or using children's personal information without giving parents notification or choice with respect to whether and how their children's personal information is collected and used.    The National PTA takes student data privacy seriously and believes we should strive to guarantee the effective use of students' information, while keeping that information protected. While student data management has changed, parents' and students' expectation of privacy has not. And as such, National PTA has made safeguarding student data a key pillar of our overall policy agenda.    The Administration has also called attention to this issue, announcing its support of what it calls the Student Digital Privacy Act, which would build upon the basic language of record management release and review offered by the Family Educational Rights and Privacy Act, or FERPA. This law was written in 1974 with the intent to protect the privacy of student educational records and includes a parental consent provision.    Over the past 40 years, however, the concept of privacy has evolved from the right of direct control to an individual's right to control the information they have entrusted to others. This wrinkle in control requires subsequent change to student data privacy policy.    Entities collecting educational data should seek to provide value back to the people on whom data are being collected. Our children's data, our children's privacy, should not be treated as a product or commodity. Until now, the collection and use of student data could not be feasibly used to target advertising or mass profiles by third party vendors. The use of student data for other than educational purposes was not contemplated on a large commercial scale. FERPA provisions must be updated to address the privacy concerns presented through such use.    In addition, we are seeing this data collected and stored in a different fashion heretofore not addressed by FERPA. State by state, we see the construction of longitudinal data systems that hold hundreds or even thousands of pieces of data related to individual students. Typically, demographic, enrollment, curriculum choice, test performance, and grade information. The extent to which this information constitutes a student's legal educational record is unclear, as are the policies for protecting student data through cloud-based computing.    Current policy also begs the questions, who owns the data and who is responsible for the management of the data? Has the data been selected ethically with full consent and notification? And what constitutes sufficient notice in the case of breaches or unauthorized releases of data?    Parents, as their child's first educator, play a unique role in education reform. Whether big or small, reform will be unsustainable without the buy-in of these key stakeholders.    National PTA remains committed to engaging parents, to guaranteeing students have safe and secure access to technology in the classroom, and committed to supporting policies that ensure responsible management of student records, digital or otherwise.    National PTA commends the committee for holding this hearing and highlighted the need for sound federal policy that balances the promise of educational technologies with student data, privacy, and security.    Thank you.    [The testS NOT AVAILABLE IN TIFF FORMAT]         Rokita. Thank you for your testimony.    Ms. Knox, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Knox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Knox. Thank you, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee for inviting me to testify today. My name is Allyson Knox. For 10 years I worked in the fields of education, workforce development, and economic development at the local, regional, and state levels in Michigan. I have worked at Microsoft for 10 years, and currently serve as the director of education policy. I am pleased to be here today to discuss this important issue of student privacy.    Microsoft believes students must be protected. Student data belongs to students and their parents. And students are not commodities to be monetized through advertising. Over the past year, revelations of government surveillance, highly-publicized data breaches, and other stories of personal data being used inappropriately have dominated the media. Microsoft, a provider of education technology, continues to balance education objectives, as well as privacy and safety expectations.    For many years, schools have been increasing the use of technology in the classroom because it transforms education. It enables personalized instruction, and it helps students learn. Schools that use cloud-based services rather than maintaining and updating their own on-site servers, they save money and can access the latest technology. Cloud computing allows teachers and students to access their documents and communications, such as email, anywhere from almost any device, enabling learning any time and anywhere.    We have seen great changes on the technology side. But the primary federal law focused on protecting student privacy, the Family Educational Rights and Privacy Act, or FERPA passed in 1974 has not kept pace with these changes.    Think back to a classroom in 1974. I think we can all remember student data being collected and stored in an old-fashioned way on paper forms sent home with kids and stored in school filing cabinets.    The world of information storage and sharing has certainly changed. In almost all schools, information about a student is stored digitally, and it can be accessed through the school's internet or the open internet. The data is portable and often not deleted when the student graduates from high school.    There are obvious difficulties with the law that is 4 decades old. And there are three areas to consider. First, it is questionable whether FERPA covers email stored in a cloud. As a result, some interpretations are that FERPA applies to cloud-based email for faculty, but not for students, and that FERPA doesn't apply to most third-party online courses. FERPA would benefit from an update to reflect these new types of technologies.    Second, FERPA was written to apply only to educational institutions. It should be updated to prohibit third parties from using data for targeted advertising or for building profiles to advertise to students after they leave school.    And third, FERPA's primary sanction is the denial of federal funds to school. This all-or-nothing enforcement penalty is so draconian that it has never been used. As a result, FERPA provides no real incentive for technology providers to improve data privacy practices. The time has come to do the difficult work of revising this law to bring it to the 21st Century.    And in the absence of federal action to update FERPA, states have taken this issue into their own hands. This year, already over 100 student privacy bills have been introduced in 32 states. It is becoming more and more difficult to interpret and comply with the patchwork of federal and state laws on this issue, even for a company of our size.    Microsoft and other technology companies have also moved forward on their own to set a higher standard for protecting student data. Last October, Microsoft was one of the 14 original signatories of a detailed and voluntary industry pledge, led by Representatives Messer and Polis, about how to protect student privacy. Today, the pledge has over 100 signatories.    Under the student privacy pledge, school service providers promised to not sell student information, not target advertise to students, use data for authorized education purposes only; and there are 5 other points, but I am running out of time. The pledge has been influential and beneficial, but Microsoft believes that signing it is only part of what must be done to help inform schools and parents on how to protect student data. It is for this reason that Microsoft has worked closely with key lawmakers and national education associations to help inform and educate stakeholders about the student privacy issue.    Again, I thank you for this opportunity to come before you today to discuss these important issues, and I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you for your testimony.    Dr. Abshire, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Abshire</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Abshire. Yes, sir. Thank you, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee for inviting me to testify about technology's impact on student privacy and confidentiality.    For over 40 years, I have served the Louisiana Public Schools as a teacher, school librarian, principal, and technology leader. I now serve as the chief technology officer of the Calcasieu Parish schools in Lake Charles, Louisiana. And I am also a member of the Consortium for School Networking, CoSN, the national professional organization for school tech leaders.    I appreciate this opportunity to discuss how our district uses technology to support teaching and learning and to share our strategy for balancing effective technology and data use with strong student data privacy protections.    Technology and data use plays a central role in our district's strategy for supporting teaching and learning, as well as in improving the system's planning, evaluation, and continual improvement. Equipped with the right technology, high-quality professional development, and appropriate data, our teachers tailor individualized instruction, engage students, and deliver rich digital resources. Our district also equips parent and guardians with the data they need to monitor, understand, and support their children's educational progress.    Using technology to provide the right people with the right data at the right time is critical to effective decision making at the classroom, school district, and state levels. We believe robust data sharing, however, must be complemented by well-designed strategies and practices to protect student privacy and ensure confidentiality.    Our district has taken an aggressive and comprehensive approach to assuring student privacy. We have created extensive data-sharing training materials, and all employees in the district have participated in training sessions. Upon completion of this required training every year, each district employee signs a statement of assurances. This process is based on CoSN's protecting privacy in a connected learning toolkit that we produced in partnership with the Harvard Law School. And the best part, it is free to all school districts.    The Calcasieu Parish Public Schools strongly emphasize both appropriate technology and secure and safe data use, including using this data to develop a greater understanding of student needs, and then tailoring instruction delivery of resources to help them succeed. Over the past 3 years, our district has developed a leading edge data warehouse and data dashboard to provide our teachers and school leaders with timely, targeted information; the information they need to support improving learning.    Based on my experience in the Calcasieu Parish Schools, I urge Congress to proceed very cautiously with new federal privacy requirements. We want to ensure that any contemplated legislation doesn't impede this type of powerful instructional data use.    We also work with all of our vendor partners that use any student data as part of learning or assessment. We require them to certify their compliance with our data usage policy. And our state law reasonably addresses data sharing with vendors and requires them to sign contracts specifying the limited purposes for which the student information can be used.    Our district believes that our teachers and school leaders and parents must be equipped with the right technology and the knowledge about how to use the student data and protect--to use it with fidelity to implement best practices. We provide this regularly-targeted professional development designed to equip our educators and school leaders with this knowledge they need to use to, most importantly, improve student outcomes, and including training them with privacy and security practices.    However, additional federal investments in technology and student-focused privacy professional development, including the Enhancing Education Through Technology program is urgently needed. I would encourage Congress to support the President's fiscal year 2016 request. Unfortunately, for school districts, this program hasn't been funded since 2011.    Our district also prioritizes communicating with stakeholders to convey the value of this data in teaching, learning, and decision making. All of this information is made readily available to parents and the entire community on our district web page. Transparency builds trust with our communities. And that is why I hope Congress will consider strategies that encourage districts to promote data use transparency, including describing the who, what, where, and when of their technology practices.    Protecting student data is not a one-time event. Educators' data needs are evolving. Security threats are constantly changing, and professional development need are ongoing. I hope Congress would encourage districts to implement security practices that meet the mature technical, physical, and administrative standards.    While federal state and privacy policy is critically important, there is no doubt in my mind that school districts and schools must lead these efforts to protect student data privacy. And any effort by Congress to update laws to protect students, FERPA and COPPA, should support, not burden school district and state data use to improve instruction and decision making.    Appropriate data sharing must be served to strengthen the potential of technology to transform and improve education. I urge Congress, please do not overreach as you address this important issue. But instead, take a thoughtful, balanced approach focused on supporting schools and district leaders.    I thank the members of the Committee for this opportunity to share a realistic view of the issue from the perspective of a school district that is engaged in this work. And I am happy to answer any questions.</t>
   </si>
   <si>
@@ -118,9 +100,6 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you for your testimony.    The way this usually works is the subcommittee chairman usually asks out with asking his questions. But I find out that my life goes smoother when I defer to the full committee chairman when he is in the room.    Sir, thank you for your leadership. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Yes, that won't work. Okay. Thank you, Mr. Chairman. This is a good hearing. Thanks for yielding to me to ask a question. I really want to thank the witnesses. You are an excellent panel. Years of expertise.    When we look at data and data privacy in the large, we as Americans ought to be concerned. We have seen spectacular reaches, big retail firms where all of their customers' information was made available to whoever was doing the hacking. Because these cyber attacks are not just a matter of rhetoric, they are a matter of fact. And so whenever you have data that is compiled, today, we have to be somewhat concerned that data will be made available. So as we look at this, we need to keep that in mind.    And I am also concerned that when we are dealing with technology--we, the Congress--we, the government. But we, the Congress, particularly--there is a great danger that we will be trundling along here years behind. In the House we move slowly. In the Senate they hardly move at all. And so it is a little troubling that we could be developing policy that by the time it is enacted is already outdated.    So I could probably start anywhere, but I am going to go to Ms. Knox to--I would like for you to get at the issue of the amount of technology that there is in the classrooms. It is not a simple question of the paper file drawer now being on a flash drive somewhere. There is all kinds of stuff. We have got hardware, software, apps, tablets, kids with cell--we have all kinds of things going on there.    So can you help us understand some common principles or ideas that we should be looking at when we are trying to update FERPA that will not get in the way of supporting technology in the classroom, but which can provide some privacy and something that won't be outdated tomorrow or in a week or something like that? Just give it your best shot.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. And I see that this subcommittee's ranking member believes in a similar philosophy as I do. So Ranking Member Scott, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Nice try. Thank you. And I want to thank all of our panelists. They have provided really good information. Let me just ask some general questions.    When you talk about personal data, is there anything in the discussion that will hurt us in trying to find growth models or trends, demographic trends, that in general we could use for educational purposes? Is there anything that--nonpersonal information, non-personally-identifiable information, is that at risk if--in any of our discussion? In other words, boys do better than girls in some areas, some pedagogy works better with some groups other than others. Are we gonna lose our ability to evaluate along those lines?</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman, for this opportunity to discuss what is a topic that is increasingly on the minds of parents and students and teachers.    I wanted to delve further into the issue with penalties related to FERPA violations. Mr. Reidenberg mentioned that we should perhaps consider developing a graduated penalty system. Could you go into that, expound what would something like that look like and how could it be most effective?</t>
   </si>
   <si>
@@ -349,9 +322,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chairman Rokita and Ranking Member Fudge, for holding this very important hearing.    Thank you to the witnesses. This is an important issue. And I hear a lot from many constituents in Oregon who are as concerned as I am about the gaps in protection.    There is always a problem in legislating around technology. Because as was recognized earlier, the technology changes much faster than policy changes. And trying to find that right balance to make sure that we aren't inhibiting innovation and the beneficial uses of technology while still finding protections is a critical balance. But it is past time for us to address that issue.    I want to talk with you, Professor Reidenberg, and say thank you for your excellent recommendations on the changes that are needed to update FERPA. When I think back to--I think you said in your testimony it was 1974. Things were a little different in 1974. And we have come a long way. But the law needs to definitely be updated.    You talked about an analogy to the Fair Credit Reporting Act, permissible purposes provisions, when you talked about educational use. But what about remedies? You said in your written testimony that right now, the denial of education funds by the Department of Education is the remedy.    But what happens, say for example, if a family finds out that there is erroneous information in a database about their student? What can they do? Is there way for them--analogous to the correction of errors provision in the Fair Credit Reporting Act, is there a way for them to correct erroneous information?</t>
   </si>
   <si>
@@ -379,9 +349,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank you y'all for being here. We appreciate what you do. Nothing more important than our children, and especially their education.    Let me ask you, when we are talking about this information, are we talking about specific information to a specific child? Or are we just talking about general information? Are we talking about, you know, at this school, 40 percent finished in this percentile?</t>
   </si>
   <si>
@@ -418,9 +385,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And thank you, panel, for being here today.    FERPA was changed under the leadership of Secretary Duncan, allowing anyone that has even a mild interest in education to see personal records. Would you support the elimination of access by third-party vendors? And that is for whoever would like to take that on.</t>
   </si>
   <si>
@@ -457,9 +421,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thanks much. I have been concerned about this issue for a long time. And the more the government collects data of any sort--you know, we have seen every agency. Eventually, it is going to get out somewhere. And this is supposed to be confidential data. So it is a scary thing.    But Mr. Reidenberg just said something kind of shocking. And I want you to repeat for me, because I almost fainted, so I didn't hear the whole thing.    The percentage of vendors who are getting, apparently partly in compensation for what they are doing, are sending out data? Could you elaborate on that a little bit?</t>
   </si>
   <si>
@@ -511,9 +472,6 @@
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. Thank the gentleman.    And I am also pleased to see that we have members from off the subcommittee interested in this issue. I would like to recognize the gentleman from Colorado for 5 minutes.</t>
   </si>
   <si>
-    <t>Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. And I appreciate the opportunity to join the subcommittee today.    I think it was very valuable the way that Ms. Bonamici has sort of framed this issue and why this has strong democratic and republican agreement about, you know, parental rights and privacy issues. It is really--as we know, schools function with a certain degree of ability to in loco parentis operate in lieu of the parents.    And the question is when it comes to kids' personal information, do the schools and the government own it and can they sell it? And the answer should be without the parent's consent, no, they don't have that ability.    But because of the advent of interactive technology, there are oftentimes students interacting directly with third-party vendors and there is not the teacher or administrator there.    And therefore, policies and laws are needed to ensure that schools, in fact, are not selling personal information, whether there is monetary compensation or in kind, software composition, effectively selling information that isn't really theirs because the parents of the minor did not give them the permission to do that.    I want to go to Ms. Knox. And recognizing that we can learn from state efforts, notably SOPIPA in California that protects student privacy. And this is fundamentally a demand driven by parents across the country. Certainly, in my own state of Colorado.    Could you elaborate on how some of those innovative policies can be taken to the federal level, building upon the pledge which 100 companies, including yours, have already signed?</t>
   </si>
   <si>
@@ -527,9 +485,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. I thank the gentleman.    Also pleased to recognize Mr. Messer, from Indiana, another welcome member of the full committee, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Messer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Messer. I thank the Chairman and the Ranking Member for their leadership on this important issue. Certainly thank the panelists as well for being here today an issue that I think a lot of parents are concerned about and yet don't they don't know a lot about either; that we are trying to wade our way through the issue.    You know, several testimonies have mentioned that the Student Privacy Pledge--thank you, Ms. Knox--and actually, Ms. Sevier and the PTA and the parent organizations that were part of our efforts to pull that together--obviously, we don't have a law today. So to have at least 100 industry leaders step forward and make clear that we ought to do some simple things, like not sell student information, not behaviorally target advertising, use data for authorized educational purposes only, and all the rest of the pats of the pledge.    You remember from our meetings together before, I have believed all along that the pledge alone wouldn't be enough, and that we ought to look at other ways that we can legally protect parents' rights to protect their child's privacy.    Yesterday in the ESEA bill we had an amendment that dealt with that. I think amending FERPA is part of that, as well. And looking at what other additional protections that we are seeing at the states could we could supply up here, like Mr. Polis and I are working on. Maybe a federal version. Not exactly the same, but a bill that would mirror the HPPA law that you know of in California.    I wanted to maybe start with Ms. Abshire and expound on the testimony at the end of the last questions. You know, it is important here that we protect student privacy. But it is also important that we make--ensure that any new laws intended to create student privacy don't create--that are intended to create a student privacy floor do not also create a digital learning ceiling.    And could you expound on that a little bit, reference--how do we find that spot in policy where we are protecting students and their privacy concerns, but still getting the remarkable educational benefits that come from having this kind of aggregated data?</t>
@@ -988,11 +943,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1012,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1040,11 +991,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1064,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1092,11 +1039,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1116,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1144,11 +1087,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1168,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1194,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1222,11 +1159,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1246,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1274,11 +1207,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1298,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1326,11 +1255,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1350,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1376,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1402,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1430,11 +1351,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1454,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1480,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1506,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1532,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1558,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1584,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1610,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1636,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1662,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1688,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1714,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1740,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1766,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1794,11 +1687,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1818,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1846,11 +1735,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1870,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1898,11 +1783,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1922,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1950,11 +1831,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1974,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2002,11 +1879,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2026,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2054,11 +1927,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2078,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2106,11 +1975,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2130,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2158,11 +2023,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2182,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2210,11 +2071,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2234,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2262,11 +2119,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2286,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2312,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2340,11 +2191,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2364,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2392,11 +2239,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2416,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2444,11 +2287,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2468,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2496,11 +2335,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2520,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2548,11 +2383,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2572,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2600,11 +2431,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2624,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2650,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2676,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2702,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2728,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2754,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2780,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2806,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2832,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2860,11 +2671,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2884,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2910,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2936,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2962,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2988,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3014,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3040,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3066,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>95</v>
-      </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
-      <c r="H82" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3092,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3118,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3144,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3170,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3198,11 +2983,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3222,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
-      </c>
-      <c r="G88" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3248,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3274,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3300,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3326,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3352,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3378,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94" t="s">
-        <v>111</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3406,11 +3175,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3430,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3456,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3482,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3508,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3534,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3560,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3586,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3612,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3640,11 +3391,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3664,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>110</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>120</v>
-      </c>
-      <c r="G105" t="s">
-        <v>121</v>
-      </c>
-      <c r="H105" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3692,11 +3439,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3716,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G107" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3742,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3768,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
-      </c>
-      <c r="G109" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3794,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3820,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G111" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3846,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3872,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3898,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3926,11 +3655,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3950,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3978,11 +3703,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4002,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>146</v>
-      </c>
-      <c r="G118" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4028,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4054,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>146</v>
-      </c>
-      <c r="G120" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4080,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4106,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>146</v>
-      </c>
-      <c r="G122" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4132,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4158,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
-      </c>
-      <c r="G124" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4184,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4210,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
-      </c>
-      <c r="G126" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4236,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4262,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
-      </c>
-      <c r="G128" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4290,11 +3991,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4314,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s">
+        <v>134</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
         <v>147</v>
-      </c>
-      <c r="H130" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4340,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4366,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4392,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4420,11 +4111,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4444,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4470,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4496,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4522,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4550,11 +4231,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4574,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>171</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4600,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4626,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>171</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4652,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4678,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>171</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4704,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4730,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>171</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4758,11 +4423,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4782,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4810,11 +4471,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4834,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4862,11 +4519,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4886,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4914,11 +4567,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4938,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4966,11 +4615,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4990,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5018,11 +4663,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5042,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5070,11 +4711,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Rokita. Well, good morning. And welcome to the first hearing of the Subcommittee on Early Childhood, Elementary, and Secondary Education in the 114th Congress.    I would like to thank our witnesses for joining us today. We appreciate the opportunity to learn from you about how emerging technology in the classroom affects student privacy.    And Ms. Fudge, before we begin, I want to take a moment to congratulate you on being selected by your colleagues to be the ranking member of this subcommittee. I anticipate that we are gonna hear a lot from each other, work well together. And I look forward to doing that with you.</t>
   </si>
   <si>
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you.</t>
   </si>
   <si>
@@ -73,21 +88,33 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Reidenberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Reidenberg. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. I will now, in conformance with our rules, ask our witnesses to stand and raise your right hand.    [Witnesses sworn.]    Let the record reflect that the witnesses answered in the affirmative.    And before I recognize each of you to provide your testimony, let me briefly explain our lighting system. You will each have 5 minutes to present your testimony. During the first 4 minutes of that, the light will be green. The last minute it will be yellow. And then if it turns red, I will be forced to use the gavel, which we have never had to do. At all. Ever. So I am sure it won't happen today.    So with that being said and understood, Ms. Sevier, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Sevier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sevier. National PTA thanks Chairman Rokita and Ranking Member Fudge for the opportunity to submit testimony to the Committee on Education and the Workforce. On behalf of the National Parent Teacher Association, I express my appreciation for holding a hearing to discuss emerging technology and student data privacy.    My name is Shannon Sevier, vice president of advocacy for the National PTA, past European PTA president, and proud mother to Ryley, MacKenzie, Meraleigh, Ryan, and Hanna.    Founded in 1897, PTA is the oldest and largest volunteer child advocacy association in the United States. For more than 118 years, we have worked side by side with policymakers at every level to improve the lives of our nation's children. With more than 4 million members and 22,000 local units in every U.S. state, D.C., Puerto Rico, the Virgin Islands, and Europe, PTA continues to be a powerful voice by advocating for federal policies to improve educational equity and opportunity for all children.    With access to so many families, PTA also recognizes our responsibility to our membership to approach changes in education policy through engagement and outreach and to recognize that true advocacy is achieved through stakeholder consensus and collaboration. National PTA has long been a vocal advocate of keeping kids safe; safe at school, safe at home, and same online.    The National PTA's position statement on technology safety clearly states National PTA opposes the practice of collecting, compiling, selling, or using children's personal information without giving parents notification or choice with respect to whether and how their children's personal information is collected and used.    The National PTA takes student data privacy seriously and believes we should strive to guarantee the effective use of students' information, while keeping that information protected. While student data management has changed, parents' and students' expectation of privacy has not. And as such, National PTA has made safeguarding student data a key pillar of our overall policy agenda.    The Administration has also called attention to this issue, announcing its support of what it calls the Student Digital Privacy Act, which would build upon the basic language of record management release and review offered by the Family Educational Rights and Privacy Act, or FERPA. This law was written in 1974 with the intent to protect the privacy of student educational records and includes a parental consent provision.    Over the past 40 years, however, the concept of privacy has evolved from the right of direct control to an individual's right to control the information they have entrusted to others. This wrinkle in control requires subsequent change to student data privacy policy.    Entities collecting educational data should seek to provide value back to the people on whom data are being collected. Our children's data, our children's privacy, should not be treated as a product or commodity. Until now, the collection and use of student data could not be feasibly used to target advertising or mass profiles by third party vendors. The use of student data for other than educational purposes was not contemplated on a large commercial scale. FERPA provisions must be updated to address the privacy concerns presented through such use.    In addition, we are seeing this data collected and stored in a different fashion heretofore not addressed by FERPA. State by state, we see the construction of longitudinal data systems that hold hundreds or even thousands of pieces of data related to individual students. Typically, demographic, enrollment, curriculum choice, test performance, and grade information. The extent to which this information constitutes a student's legal educational record is unclear, as are the policies for protecting student data through cloud-based computing.    Current policy also begs the questions, who owns the data and who is responsible for the management of the data? Has the data been selected ethically with full consent and notification? And what constitutes sufficient notice in the case of breaches or unauthorized releases of data?    Parents, as their child's first educator, play a unique role in education reform. Whether big or small, reform will be unsustainable without the buy-in of these key stakeholders.    National PTA remains committed to engaging parents, to guaranteeing students have safe and secure access to technology in the classroom, and committed to supporting policies that ensure responsible management of student records, digital or otherwise.    National PTA commends the committee for holding this hearing and highlighted the need for sound federal policy that balances the promise of educational technologies with student data, privacy, and security.    Thank you.    [The testS NOT AVAILABLE IN TIFF FORMAT]         Rokita. Thank you for your testimony.    Ms. Knox, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Knox</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Knox. Thank you, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee for inviting me to testify today. My name is Allyson Knox. For 10 years I worked in the fields of education, workforce development, and economic development at the local, regional, and state levels in Michigan. I have worked at Microsoft for 10 years, and currently serve as the director of education policy. I am pleased to be here today to discuss this important issue of student privacy.    Microsoft believes students must be protected. Student data belongs to students and their parents. And students are not commodities to be monetized through advertising. Over the past year, revelations of government surveillance, highly-publicized data breaches, and other stories of personal data being used inappropriately have dominated the media. Microsoft, a provider of education technology, continues to balance education objectives, as well as privacy and safety expectations.    For many years, schools have been increasing the use of technology in the classroom because it transforms education. It enables personalized instruction, and it helps students learn. Schools that use cloud-based services rather than maintaining and updating their own on-site servers, they save money and can access the latest technology. Cloud computing allows teachers and students to access their documents and communications, such as email, anywhere from almost any device, enabling learning any time and anywhere.    We have seen great changes on the technology side. But the primary federal law focused on protecting student privacy, the Family Educational Rights and Privacy Act, or FERPA passed in 1974 has not kept pace with these changes.    Think back to a classroom in 1974. I think we can all remember student data being collected and stored in an old-fashioned way on paper forms sent home with kids and stored in school filing cabinets.    The world of information storage and sharing has certainly changed. In almost all schools, information about a student is stored digitally, and it can be accessed through the school's internet or the open internet. The data is portable and often not deleted when the student graduates from high school.    There are obvious difficulties with the law that is 4 decades old. And there are three areas to consider. First, it is questionable whether FERPA covers email stored in a cloud. As a result, some interpretations are that FERPA applies to cloud-based email for faculty, but not for students, and that FERPA doesn't apply to most third-party online courses. FERPA would benefit from an update to reflect these new types of technologies.    Second, FERPA was written to apply only to educational institutions. It should be updated to prohibit third parties from using data for targeted advertising or for building profiles to advertise to students after they leave school.    And third, FERPA's primary sanction is the denial of federal funds to school. This all-or-nothing enforcement penalty is so draconian that it has never been used. As a result, FERPA provides no real incentive for technology providers to improve data privacy practices. The time has come to do the difficult work of revising this law to bring it to the 21st Century.    And in the absence of federal action to update FERPA, states have taken this issue into their own hands. This year, already over 100 student privacy bills have been introduced in 32 states. It is becoming more and more difficult to interpret and comply with the patchwork of federal and state laws on this issue, even for a company of our size.    Microsoft and other technology companies have also moved forward on their own to set a higher standard for protecting student data. Last October, Microsoft was one of the 14 original signatories of a detailed and voluntary industry pledge, led by Representatives Messer and Polis, about how to protect student privacy. Today, the pledge has over 100 signatories.    Under the student privacy pledge, school service providers promised to not sell student information, not target advertise to students, use data for authorized education purposes only; and there are 5 other points, but I am running out of time. The pledge has been influential and beneficial, but Microsoft believes that signing it is only part of what must be done to help inform schools and parents on how to protect student data. It is for this reason that Microsoft has worked closely with key lawmakers and national education associations to help inform and educate stakeholders about the student privacy issue.    Again, I thank you for this opportunity to come before you today to discuss these important issues, and I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you for your testimony.    Dr. Abshire, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Abshire</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Abshire. Yes, sir. Thank you, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee for inviting me to testify about technology's impact on student privacy and confidentiality.    For over 40 years, I have served the Louisiana Public Schools as a teacher, school librarian, principal, and technology leader. I now serve as the chief technology officer of the Calcasieu Parish schools in Lake Charles, Louisiana. And I am also a member of the Consortium for School Networking, CoSN, the national professional organization for school tech leaders.    I appreciate this opportunity to discuss how our district uses technology to support teaching and learning and to share our strategy for balancing effective technology and data use with strong student data privacy protections.    Technology and data use plays a central role in our district's strategy for supporting teaching and learning, as well as in improving the system's planning, evaluation, and continual improvement. Equipped with the right technology, high-quality professional development, and appropriate data, our teachers tailor individualized instruction, engage students, and deliver rich digital resources. Our district also equips parent and guardians with the data they need to monitor, understand, and support their children's educational progress.    Using technology to provide the right people with the right data at the right time is critical to effective decision making at the classroom, school district, and state levels. We believe robust data sharing, however, must be complemented by well-designed strategies and practices to protect student privacy and ensure confidentiality.    Our district has taken an aggressive and comprehensive approach to assuring student privacy. We have created extensive data-sharing training materials, and all employees in the district have participated in training sessions. Upon completion of this required training every year, each district employee signs a statement of assurances. This process is based on CoSN's protecting privacy in a connected learning toolkit that we produced in partnership with the Harvard Law School. And the best part, it is free to all school districts.    The Calcasieu Parish Public Schools strongly emphasize both appropriate technology and secure and safe data use, including using this data to develop a greater understanding of student needs, and then tailoring instruction delivery of resources to help them succeed. Over the past 3 years, our district has developed a leading edge data warehouse and data dashboard to provide our teachers and school leaders with timely, targeted information; the information they need to support improving learning.    Based on my experience in the Calcasieu Parish Schools, I urge Congress to proceed very cautiously with new federal privacy requirements. We want to ensure that any contemplated legislation doesn't impede this type of powerful instructional data use.    We also work with all of our vendor partners that use any student data as part of learning or assessment. We require them to certify their compliance with our data usage policy. And our state law reasonably addresses data sharing with vendors and requires them to sign contracts specifying the limited purposes for which the student information can be used.    Our district believes that our teachers and school leaders and parents must be equipped with the right technology and the knowledge about how to use the student data and protect--to use it with fidelity to implement best practices. We provide this regularly-targeted professional development designed to equip our educators and school leaders with this knowledge they need to use to, most importantly, improve student outcomes, and including training them with privacy and security practices.    However, additional federal investments in technology and student-focused privacy professional development, including the Enhancing Education Through Technology program is urgently needed. I would encourage Congress to support the President's fiscal year 2016 request. Unfortunately, for school districts, this program hasn't been funded since 2011.    Our district also prioritizes communicating with stakeholders to convey the value of this data in teaching, learning, and decision making. All of this information is made readily available to parents and the entire community on our district web page. Transparency builds trust with our communities. And that is why I hope Congress will consider strategies that encourage districts to promote data use transparency, including describing the who, what, where, and when of their technology practices.    Protecting student data is not a one-time event. Educators' data needs are evolving. Security threats are constantly changing, and professional development need are ongoing. I hope Congress would encourage districts to implement security practices that meet the mature technical, physical, and administrative standards.    While federal state and privacy policy is critically important, there is no doubt in my mind that school districts and schools must lead these efforts to protect student data privacy. And any effort by Congress to update laws to protect students, FERPA and COPPA, should support, not burden school district and state data use to improve instruction and decision making.    Appropriate data sharing must be served to strengthen the potential of technology to transform and improve education. I urge Congress, please do not overreach as you address this important issue. But instead, take a thoughtful, balanced approach focused on supporting schools and district leaders.    I thank the members of the Committee for this opportunity to share a realistic view of the issue from the perspective of a school district that is engaged in this work. And I am happy to answer any questions.</t>
   </si>
   <si>
@@ -100,6 +127,9 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you for your testimony.    The way this usually works is the subcommittee chairman usually asks out with asking his questions. But I find out that my life goes smoother when I defer to the full committee chairman when he is in the room.    Sir, thank you for your leadership. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Yes, that won't work. Okay. Thank you, Mr. Chairman. This is a good hearing. Thanks for yielding to me to ask a question. I really want to thank the witnesses. You are an excellent panel. Years of expertise.    When we look at data and data privacy in the large, we as Americans ought to be concerned. We have seen spectacular reaches, big retail firms where all of their customers' information was made available to whoever was doing the hacking. Because these cyber attacks are not just a matter of rhetoric, they are a matter of fact. And so whenever you have data that is compiled, today, we have to be somewhat concerned that data will be made available. So as we look at this, we need to keep that in mind.    And I am also concerned that when we are dealing with technology--we, the Congress--we, the government. But we, the Congress, particularly--there is a great danger that we will be trundling along here years behind. In the House we move slowly. In the Senate they hardly move at all. And so it is a little troubling that we could be developing policy that by the time it is enacted is already outdated.    So I could probably start anywhere, but I am going to go to Ms. Knox to--I would like for you to get at the issue of the amount of technology that there is in the classrooms. It is not a simple question of the paper file drawer now being on a flash drive somewhere. There is all kinds of stuff. We have got hardware, software, apps, tablets, kids with cell--we have all kinds of things going on there.    So can you help us understand some common principles or ideas that we should be looking at when we are trying to update FERPA that will not get in the way of supporting technology in the classroom, but which can provide some privacy and something that won't be outdated tomorrow or in a week or something like that? Just give it your best shot.</t>
   </si>
   <si>
@@ -112,6 +142,9 @@
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. And I see that this subcommittee's ranking member believes in a similar philosophy as I do. So Ranking Member Scott, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Nice try. Thank you. And I want to thank all of our panelists. They have provided really good information. Let me just ask some general questions.    When you talk about personal data, is there anything in the discussion that will hurt us in trying to find growth models or trends, demographic trends, that in general we could use for educational purposes? Is there anything that--nonpersonal information, non-personally-identifiable information, is that at risk if--in any of our discussion? In other words, boys do better than girls in some areas, some pedagogy works better with some groups other than others. Are we gonna lose our ability to evaluate along those lines?</t>
   </si>
   <si>
@@ -280,6 +313,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman, for this opportunity to discuss what is a topic that is increasingly on the minds of parents and students and teachers.    I wanted to delve further into the issue with penalties related to FERPA violations. Mr. Reidenberg mentioned that we should perhaps consider developing a graduated penalty system. Could you go into that, expound what would something like that look like and how could it be most effective?</t>
   </si>
   <si>
@@ -322,6 +361,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chairman Rokita and Ranking Member Fudge, for holding this very important hearing.    Thank you to the witnesses. This is an important issue. And I hear a lot from many constituents in Oregon who are as concerned as I am about the gaps in protection.    There is always a problem in legislating around technology. Because as was recognized earlier, the technology changes much faster than policy changes. And trying to find that right balance to make sure that we aren't inhibiting innovation and the beneficial uses of technology while still finding protections is a critical balance. But it is past time for us to address that issue.    I want to talk with you, Professor Reidenberg, and say thank you for your excellent recommendations on the changes that are needed to update FERPA. When I think back to--I think you said in your testimony it was 1974. Things were a little different in 1974. And we have come a long way. But the law needs to definitely be updated.    You talked about an analogy to the Fair Credit Reporting Act, permissible purposes provisions, when you talked about educational use. But what about remedies? You said in your written testimony that right now, the denial of education funds by the Department of Education is the remedy.    But what happens, say for example, if a family finds out that there is erroneous information in a database about their student? What can they do? Is there way for them--analogous to the correction of errors provision in the Fair Credit Reporting Act, is there a way for them to correct erroneous information?</t>
   </si>
   <si>
@@ -349,6 +394,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank you y'all for being here. We appreciate what you do. Nothing more important than our children, and especially their education.    Let me ask you, when we are talking about this information, are we talking about specific information to a specific child? Or are we just talking about general information? Are we talking about, you know, at this school, 40 percent finished in this percentile?</t>
   </si>
   <si>
@@ -385,6 +436,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And thank you, panel, for being here today.    FERPA was changed under the leadership of Secretary Duncan, allowing anyone that has even a mild interest in education to see personal records. Would you support the elimination of access by third-party vendors? And that is for whoever would like to take that on.</t>
   </si>
   <si>
@@ -421,6 +478,12 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Thanks much. I have been concerned about this issue for a long time. And the more the government collects data of any sort--you know, we have seen every agency. Eventually, it is going to get out somewhere. And this is supposed to be confidential data. So it is a scary thing.    But Mr. Reidenberg just said something kind of shocking. And I want you to repeat for me, because I almost fainted, so I didn't hear the whole thing.    The percentage of vendors who are getting, apparently partly in compensation for what they are doing, are sending out data? Could you elaborate on that a little bit?</t>
   </si>
   <si>
@@ -472,6 +535,9 @@
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. Thank the gentleman.    And I am also pleased to see that we have members from off the subcommittee interested in this issue. I would like to recognize the gentleman from Colorado for 5 minutes.</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. And I appreciate the opportunity to join the subcommittee today.    I think it was very valuable the way that Ms. Bonamici has sort of framed this issue and why this has strong democratic and republican agreement about, you know, parental rights and privacy issues. It is really--as we know, schools function with a certain degree of ability to in loco parentis operate in lieu of the parents.    And the question is when it comes to kids' personal information, do the schools and the government own it and can they sell it? And the answer should be without the parent's consent, no, they don't have that ability.    But because of the advent of interactive technology, there are oftentimes students interacting directly with third-party vendors and there is not the teacher or administrator there.    And therefore, policies and laws are needed to ensure that schools, in fact, are not selling personal information, whether there is monetary compensation or in kind, software composition, effectively selling information that isn't really theirs because the parents of the minor did not give them the permission to do that.    I want to go to Ms. Knox. And recognizing that we can learn from state efforts, notably SOPIPA in California that protects student privacy. And this is fundamentally a demand driven by parents across the country. Certainly, in my own state of Colorado.    Could you elaborate on how some of those innovative policies can be taken to the federal level, building upon the pledge which 100 companies, including yours, have already signed?</t>
   </si>
   <si>
@@ -485,6 +551,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Gentleman's time is expired. I thank the gentleman.    Also pleased to recognize Mr. Messer, from Indiana, another welcome member of the full committee, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Messer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Messer. I thank the Chairman and the Ranking Member for their leadership on this important issue. Certainly thank the panelists as well for being here today an issue that I think a lot of parents are concerned about and yet don't they don't know a lot about either; that we are trying to wade our way through the issue.    You know, several testimonies have mentioned that the Student Privacy Pledge--thank you, Ms. Knox--and actually, Ms. Sevier and the PTA and the parent organizations that were part of our efforts to pull that together--obviously, we don't have a law today. So to have at least 100 industry leaders step forward and make clear that we ought to do some simple things, like not sell student information, not behaviorally target advertising, use data for authorized educational purposes only, and all the rest of the pats of the pledge.    You remember from our meetings together before, I have believed all along that the pledge alone wouldn't be enough, and that we ought to look at other ways that we can legally protect parents' rights to protect their child's privacy.    Yesterday in the ESEA bill we had an amendment that dealt with that. I think amending FERPA is part of that, as well. And looking at what other additional protections that we are seeing at the states could we could supply up here, like Mr. Polis and I are working on. Maybe a federal version. Not exactly the same, but a bill that would mirror the HPPA law that you know of in California.    I wanted to maybe start with Ms. Abshire and expound on the testimony at the end of the last questions. You know, it is important here that we protect student privacy. But it is also important that we make--ensure that any new laws intended to create student privacy don't create--that are intended to create a student privacy floor do not also create a digital learning ceiling.    And could you expound on that a little bit, reference--how do we find that spot in policy where we are protecting students and their privacy concerns, but still getting the remarkable educational benefits that come from having this kind of aggregated data?</t>
@@ -893,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +970,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,3797 +992,4428 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G88" t="s">
+        <v>115</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G94" t="s">
+        <v>115</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>110</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G107" t="s">
+        <v>140</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>140</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G114" t="s">
+        <v>140</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>140</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G118" t="s">
+        <v>154</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G120" t="s">
+        <v>154</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G122" t="s">
+        <v>154</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G124" t="s">
+        <v>154</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G126" t="s">
+        <v>154</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G128" t="s">
+        <v>154</v>
+      </c>
       <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>134</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G130" t="s">
+        <v>154</v>
+      </c>
       <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>134</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G132" t="s">
+        <v>154</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>173</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>173</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>179</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>179</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>179</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>179</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
       <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93208.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rokita</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Fudge</t>
   </si>
   <si>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -962,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,7 +982,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4425 +1007,4740 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G96" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G118" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G120" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H122" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I126" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I128" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G130" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I130" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G132" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>173</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>177</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>173</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>177</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>179</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>183</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>179</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>183</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>179</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>183</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>179</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>183</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I148" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>32</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>199</v>
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
